--- a/GestorReceitas/Janeiro/relatorioMensal_janeiro.xlsx
+++ b/GestorReceitas/Janeiro/relatorioMensal_janeiro.xlsx
@@ -1485,49 +1485,49 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C5700"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFD966"/>
       <name val="Calibri"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -1670,7 +1670,7 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="159">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1760,6 +1760,1456 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1849,30 +3299,30 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="N3" activeCellId="0" sqref="I3:N3"/>
+      <selection pane="bottomLeft" activeCell="O109" activeCellId="0" sqref="O109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="7.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="3.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="3.15"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="3.57"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="4.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="7.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="8" style="1" width="8.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="8.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="7.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="17" min="17" style="1" width="12.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="18" min="18" style="1" width="40.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="36.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="36.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="20" style="1" width="13.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="22" style="1" width="21.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="23" style="1" width="8.71"/>
@@ -2165,7 +3615,7 @@
         <v>0</v>
       </c>
       <c r="N5" s="6" t="n">
-        <f aca="false">+45+15</f>
+        <f aca="false">45+15</f>
         <v>60</v>
       </c>
       <c r="O5" s="8" t="n">
@@ -2473,7 +3923,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="6" t="n">
-        <f aca="false">+45+15</f>
+        <f aca="false">45+15</f>
         <v>60</v>
       </c>
       <c r="O10" s="8" t="n">
@@ -2783,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="6" t="n">
-        <f aca="false">+15+15</f>
+        <f aca="false">15+15</f>
         <v>30</v>
       </c>
       <c r="O15" s="8" t="n">
@@ -3782,7 +5232,7 @@
         <v>15</v>
       </c>
       <c r="M32" s="6" t="n">
-        <f aca="false">+77+15</f>
+        <f aca="false">77+15</f>
         <v>92</v>
       </c>
       <c r="N32" s="6" t="n">
@@ -4428,7 +5878,7 @@
         <v>0</v>
       </c>
       <c r="N43" s="6" t="n">
-        <f aca="false">+65+15</f>
+        <f aca="false">65+15</f>
         <v>80</v>
       </c>
       <c r="O43" s="8" t="n">
@@ -4488,7 +5938,7 @@
         <v>15</v>
       </c>
       <c r="M44" s="6" t="n">
-        <f aca="false">+15+15</f>
+        <f aca="false">15+15</f>
         <v>30</v>
       </c>
       <c r="N44" s="6" t="n">
@@ -4905,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="6" t="n">
-        <f aca="false">+48+2</f>
+        <f aca="false">48+2</f>
         <v>50</v>
       </c>
       <c r="O51" s="8" t="n">
@@ -5427,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="N60" s="6" t="n">
-        <f aca="false">+85+15</f>
+        <f aca="false">85+15</f>
         <v>100</v>
       </c>
       <c r="O60" s="8" t="n">
@@ -5549,7 +6999,7 @@
         <v>15</v>
       </c>
       <c r="N62" s="6" t="n">
-        <f aca="false">+75</f>
+        <f aca="false">75</f>
         <v>75</v>
       </c>
       <c r="O62" s="8" t="n">
@@ -6519,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="N78" s="6" t="n">
-        <f aca="false">+30+12</f>
+        <f aca="false">30+12</f>
         <v>42</v>
       </c>
       <c r="O78" s="8" t="n">
@@ -6703,7 +8153,7 @@
         <v>15</v>
       </c>
       <c r="M81" s="6" t="n">
-        <f aca="false">+35+15</f>
+        <f aca="false">35+15</f>
         <v>50</v>
       </c>
       <c r="N81" s="6" t="n">
@@ -6767,7 +8217,7 @@
         <v>0</v>
       </c>
       <c r="N82" s="6" t="n">
-        <f aca="false">+15+33.5</f>
+        <f aca="false">15+33.5</f>
         <v>48.5</v>
       </c>
       <c r="O82" s="8" t="n">
@@ -7250,7 +8700,7 @@
         <v>15</v>
       </c>
       <c r="N90" s="6" t="n">
-        <f aca="false">+42+15</f>
+        <f aca="false">42+15</f>
         <v>57</v>
       </c>
       <c r="O90" s="8" t="n">
@@ -7310,7 +8760,7 @@
         <v>15</v>
       </c>
       <c r="M91" s="6" t="n">
-        <f aca="false">+2+73+15</f>
+        <f aca="false">2+73+15</f>
         <v>90</v>
       </c>
       <c r="N91" s="6" t="n">
@@ -7793,7 +9243,7 @@
         <v>0</v>
       </c>
       <c r="N99" s="6" t="n">
-        <f aca="false">+22+15</f>
+        <f aca="false">22+15</f>
         <v>37</v>
       </c>
       <c r="O99" s="8" t="n">
@@ -7854,7 +9304,7 @@
         <v>0</v>
       </c>
       <c r="N100" s="6" t="n">
-        <f aca="false">+69+27</f>
+        <f aca="false">69+27</f>
         <v>96</v>
       </c>
       <c r="O100" s="8" t="n">
@@ -8212,7 +9662,7 @@
         <v>0</v>
       </c>
       <c r="N106" s="6" t="n">
-        <f aca="false">+15+28</f>
+        <f aca="false">15+28</f>
         <v>43</v>
       </c>
       <c r="O106" s="8" t="n">
@@ -8275,7 +9725,7 @@
         <v>15</v>
       </c>
       <c r="M107" s="6" t="n">
-        <f aca="false">+4+15</f>
+        <f aca="false">4+15</f>
         <v>19</v>
       </c>
       <c r="N107" s="6" t="n">
@@ -8405,7 +9855,7 @@
         <v>15</v>
       </c>
       <c r="N109" s="6" t="n">
-        <f aca="false">+42+15</f>
+        <f aca="false">42+15</f>
         <v>57</v>
       </c>
       <c r="O109" s="8" t="n">
@@ -8831,7 +10281,7 @@
       </c>
       <c r="L116" s="6"/>
       <c r="M116" s="6" t="n">
-        <f aca="false">+68.5+25</f>
+        <f aca="false">68.5+25</f>
         <v>93.5</v>
       </c>
       <c r="N116" s="6" t="n">
@@ -9077,7 +10527,7 @@
         <v>15</v>
       </c>
       <c r="N120" s="6" t="n">
-        <f aca="false">+15+45</f>
+        <f aca="false">15+45</f>
         <v>60</v>
       </c>
       <c r="O120" s="8" t="n">
@@ -9309,7 +10759,7 @@
         <v>0</v>
       </c>
       <c r="N124" s="6" t="n">
-        <f aca="false">+20+15</f>
+        <f aca="false">20+15</f>
         <v>35</v>
       </c>
       <c r="O124" s="8" t="n">
@@ -9427,7 +10877,7 @@
         <v>0</v>
       </c>
       <c r="N126" s="6" t="n">
-        <f aca="false">+15+15</f>
+        <f aca="false">15+15</f>
         <v>30</v>
       </c>
       <c r="O126" s="8" t="n">
@@ -9660,7 +11110,7 @@
         <v>0</v>
       </c>
       <c r="N130" s="6" t="n">
-        <f aca="false">+15+15</f>
+        <f aca="false">15+15</f>
         <v>30</v>
       </c>
       <c r="O130" s="8" t="n">
@@ -9721,7 +11171,7 @@
         <v>15</v>
       </c>
       <c r="N131" s="6" t="n">
-        <f aca="false">+15+15</f>
+        <f aca="false">15+15</f>
         <v>30</v>
       </c>
       <c r="O131" s="8" t="n">
@@ -10173,7 +11623,7 @@
         <v>15</v>
       </c>
       <c r="N139" s="6" t="n">
-        <f aca="false">+45+15</f>
+        <f aca="false">45+15</f>
         <v>60</v>
       </c>
       <c r="O139" s="8" t="n">
@@ -10355,7 +11805,7 @@
         <v>0</v>
       </c>
       <c r="N142" s="6" t="n">
-        <f aca="false">+30+12</f>
+        <f aca="false">30+12</f>
         <v>42</v>
       </c>
       <c r="O142" s="8" t="n">
@@ -10615,10 +12065,7 @@
     </row>
     <row r="149" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I149" s="7"/>
-      <c r="J149" s="4" t="n">
-        <f aca="false">27*3</f>
-        <v>81</v>
-      </c>
+      <c r="J149" s="4"/>
     </row>
     <row r="150" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="I150" s="7"/>
@@ -13181,727 +14628,727 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O2">
-    <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="3" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="14">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O3">
-    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="4" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O4">
-    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="5" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
-    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="6" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O6">
-    <cfRule type="cellIs" priority="7" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="7" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
-    <cfRule type="cellIs" priority="8" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="8" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O8">
-    <cfRule type="cellIs" priority="9" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="9" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O9">
-    <cfRule type="cellIs" priority="10" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="10" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O10">
-    <cfRule type="cellIs" priority="11" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="11" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11">
-    <cfRule type="cellIs" priority="12" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="12" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O12">
-    <cfRule type="cellIs" priority="13" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="13" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="24">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O13">
-    <cfRule type="cellIs" priority="14" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="14" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="25">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O14">
-    <cfRule type="cellIs" priority="15" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="15" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="26">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O15">
-    <cfRule type="cellIs" priority="16" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="16" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="27">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O16">
-    <cfRule type="cellIs" priority="17" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="17" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="28">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O17">
-    <cfRule type="cellIs" priority="18" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="18" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="29">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O18">
-    <cfRule type="cellIs" priority="19" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="19" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="30">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O19">
-    <cfRule type="cellIs" priority="20" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="20" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="31">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O20">
-    <cfRule type="cellIs" priority="21" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="21" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="32">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O21">
-    <cfRule type="cellIs" priority="22" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="22" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="33">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O22">
-    <cfRule type="cellIs" priority="23" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="23" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="34">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O23">
-    <cfRule type="cellIs" priority="24" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="24" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="35">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O24">
-    <cfRule type="cellIs" priority="25" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="25" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="36">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O25">
-    <cfRule type="cellIs" priority="26" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="26" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="37">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O26">
-    <cfRule type="cellIs" priority="27" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="27" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="38">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O27">
-    <cfRule type="cellIs" priority="28" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="28" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="39">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O28">
-    <cfRule type="cellIs" priority="29" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="29" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="40">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O29">
-    <cfRule type="cellIs" priority="30" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="30" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="41">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O30">
-    <cfRule type="cellIs" priority="31" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="31" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="42">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31">
-    <cfRule type="cellIs" priority="32" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="32" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="43">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O32">
-    <cfRule type="cellIs" priority="33" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="33" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="44">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O33">
-    <cfRule type="cellIs" priority="34" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="34" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="45">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O34">
-    <cfRule type="cellIs" priority="35" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="35" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="46">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O35">
-    <cfRule type="cellIs" priority="36" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="36" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="47">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O36">
-    <cfRule type="cellIs" priority="37" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="37" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="48">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O37">
-    <cfRule type="cellIs" priority="38" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="38" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="49">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O38">
-    <cfRule type="cellIs" priority="39" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="39" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="50">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O39">
-    <cfRule type="cellIs" priority="40" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="40" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="51">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O40">
-    <cfRule type="cellIs" priority="41" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="41" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="52">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O41">
-    <cfRule type="cellIs" priority="42" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="42" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="53">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O42">
-    <cfRule type="cellIs" priority="43" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="43" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="54">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O43">
-    <cfRule type="cellIs" priority="44" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="44" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="55">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O44">
-    <cfRule type="cellIs" priority="45" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="45" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="56">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O45">
-    <cfRule type="cellIs" priority="46" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="46" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="57">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O46">
-    <cfRule type="cellIs" priority="47" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="47" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="58">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O47">
-    <cfRule type="cellIs" priority="48" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="48" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="59">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O48">
-    <cfRule type="cellIs" priority="49" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="49" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="60">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O49">
-    <cfRule type="cellIs" priority="50" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="50" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="61">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O50">
-    <cfRule type="cellIs" priority="51" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="51" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="62">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O51">
-    <cfRule type="cellIs" priority="52" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="52" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="63">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O52">
-    <cfRule type="cellIs" priority="53" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="53" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="64">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O53">
-    <cfRule type="cellIs" priority="54" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="54" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="65">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O54">
-    <cfRule type="cellIs" priority="55" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="55" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="66">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O55">
-    <cfRule type="cellIs" priority="56" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="56" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="67">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O56">
-    <cfRule type="cellIs" priority="57" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="57" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="68">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O57">
-    <cfRule type="cellIs" priority="58" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="58" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="69">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O58">
-    <cfRule type="cellIs" priority="59" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="59" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="70">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O59">
-    <cfRule type="cellIs" priority="60" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="60" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="71">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O60">
-    <cfRule type="cellIs" priority="61" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="61" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="72">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O61">
-    <cfRule type="cellIs" priority="62" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="62" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="73">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O62">
-    <cfRule type="cellIs" priority="63" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="63" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="74">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O63">
-    <cfRule type="cellIs" priority="64" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="64" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="75">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O64">
-    <cfRule type="cellIs" priority="65" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="65" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="76">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O65">
-    <cfRule type="cellIs" priority="66" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="66" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="77">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O66">
-    <cfRule type="cellIs" priority="67" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="67" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="78">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O67">
-    <cfRule type="cellIs" priority="68" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="68" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="79">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O68">
-    <cfRule type="cellIs" priority="69" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="69" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="80">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O69">
-    <cfRule type="cellIs" priority="70" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="70" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="81">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O70">
-    <cfRule type="cellIs" priority="71" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="71" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="82">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O71">
-    <cfRule type="cellIs" priority="72" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="72" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="83">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O72">
-    <cfRule type="cellIs" priority="73" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="73" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="84">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O73">
-    <cfRule type="cellIs" priority="74" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="74" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="85">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O74">
-    <cfRule type="cellIs" priority="75" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="75" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="86">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O75">
-    <cfRule type="cellIs" priority="76" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="76" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="87">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O76">
-    <cfRule type="cellIs" priority="77" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="77" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="88">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O77">
-    <cfRule type="cellIs" priority="78" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="78" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="89">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O78">
-    <cfRule type="cellIs" priority="79" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="79" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="90">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O79">
-    <cfRule type="cellIs" priority="80" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="80" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="91">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O80">
-    <cfRule type="cellIs" priority="81" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="81" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="92">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O81">
-    <cfRule type="cellIs" priority="82" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="82" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="93">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O82">
-    <cfRule type="cellIs" priority="83" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="83" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="94">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O83">
-    <cfRule type="cellIs" priority="84" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="84" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="95">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O84">
-    <cfRule type="cellIs" priority="85" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="85" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="96">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O85">
-    <cfRule type="cellIs" priority="86" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="86" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="97">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O86">
-    <cfRule type="cellIs" priority="87" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="87" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="98">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O87">
-    <cfRule type="cellIs" priority="88" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="88" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="99">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O88">
-    <cfRule type="cellIs" priority="89" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="89" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="100">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O89">
-    <cfRule type="cellIs" priority="90" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="90" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="101">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O90">
-    <cfRule type="cellIs" priority="91" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="91" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="102">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O91">
-    <cfRule type="cellIs" priority="92" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="92" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="103">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O92">
-    <cfRule type="cellIs" priority="93" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="93" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="104">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O93">
-    <cfRule type="cellIs" priority="94" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="94" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="105">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O94">
-    <cfRule type="cellIs" priority="95" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="95" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="106">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O95">
-    <cfRule type="cellIs" priority="96" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="96" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="107">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O96">
-    <cfRule type="cellIs" priority="97" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="97" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="108">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O97">
-    <cfRule type="cellIs" priority="98" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="98" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="109">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O99">
-    <cfRule type="cellIs" priority="99" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="99" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="110">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O100">
-    <cfRule type="cellIs" priority="100" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="100" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="111">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O101">
-    <cfRule type="cellIs" priority="101" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="101" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="112">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O102">
-    <cfRule type="cellIs" priority="102" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="102" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="113">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O103">
-    <cfRule type="cellIs" priority="103" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="103" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="114">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O104">
-    <cfRule type="cellIs" priority="104" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="104" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="115">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O105">
-    <cfRule type="cellIs" priority="105" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="105" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="116">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O106">
-    <cfRule type="cellIs" priority="106" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="106" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="117">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O107">
-    <cfRule type="cellIs" priority="107" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="107" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="118">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O108">
-    <cfRule type="cellIs" priority="108" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="108" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="119">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O109">
-    <cfRule type="cellIs" priority="109" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="109" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="120">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O110">
-    <cfRule type="cellIs" priority="110" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="110" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="121">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O111">
-    <cfRule type="cellIs" priority="111" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="111" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="122">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O112">
-    <cfRule type="cellIs" priority="112" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="112" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="123">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O113">
-    <cfRule type="cellIs" priority="113" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="113" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="124">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O114">
-    <cfRule type="cellIs" priority="114" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="114" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="125">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O115">
-    <cfRule type="cellIs" priority="115" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="115" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="126">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O116">
-    <cfRule type="cellIs" priority="116" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="116" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="127">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O117">
-    <cfRule type="cellIs" priority="117" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="117" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="128">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O118">
-    <cfRule type="cellIs" priority="118" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="118" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="129">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O119">
-    <cfRule type="cellIs" priority="119" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="119" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="130">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O120">
-    <cfRule type="cellIs" priority="120" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="120" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="131">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O121">
-    <cfRule type="cellIs" priority="121" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="121" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="132">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O122">
-    <cfRule type="cellIs" priority="122" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="122" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="133">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O123">
-    <cfRule type="cellIs" priority="123" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="123" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="134">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O124">
-    <cfRule type="cellIs" priority="124" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="124" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="135">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O125">
-    <cfRule type="cellIs" priority="125" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="125" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="136">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O126">
-    <cfRule type="cellIs" priority="126" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="126" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="137">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O127">
-    <cfRule type="cellIs" priority="127" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="127" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="138">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O128">
-    <cfRule type="cellIs" priority="128" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="128" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="139">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O129">
-    <cfRule type="cellIs" priority="129" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="129" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="140">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O130">
-    <cfRule type="cellIs" priority="130" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="130" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="141">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O131">
-    <cfRule type="cellIs" priority="131" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="131" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="142">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O132">
-    <cfRule type="cellIs" priority="132" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="132" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="143">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O133">
-    <cfRule type="cellIs" priority="133" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="133" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="144">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O134">
-    <cfRule type="cellIs" priority="134" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="134" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="145">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O135">
-    <cfRule type="cellIs" priority="135" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="135" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="146">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O136">
-    <cfRule type="cellIs" priority="136" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="136" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="147">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O137">
-    <cfRule type="cellIs" priority="137" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="137" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="148">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O138">
-    <cfRule type="cellIs" priority="138" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="138" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="149">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O139">
-    <cfRule type="cellIs" priority="139" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="139" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="150">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O140">
-    <cfRule type="cellIs" priority="140" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="140" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="151">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O141">
-    <cfRule type="cellIs" priority="141" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="141" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="152">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O142">
-    <cfRule type="cellIs" priority="142" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="142" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="153">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O143">
-    <cfRule type="cellIs" priority="143" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="143" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="154">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O144">
-    <cfRule type="cellIs" priority="144" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="144" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="155">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O145">
-    <cfRule type="cellIs" priority="145" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="145" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="156">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O146">
-    <cfRule type="cellIs" priority="146" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="146" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="157">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O98">
-    <cfRule type="cellIs" priority="147" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="13">
+    <cfRule type="cellIs" priority="147" operator="lessThan" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="158">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/GestorReceitas/Janeiro/relatorioMensal_janeiro.xlsx
+++ b/GestorReceitas/Janeiro/relatorioMensal_janeiro.xlsx
@@ -3299,15 +3299,15 @@
   <dimension ref="A1:AA1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O109" activeCellId="0" sqref="O109"/>
+      <selection pane="bottomLeft" activeCell="P133" activeCellId="0" sqref="P133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="1" width="7.15"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="1" width="7.16"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="3" min="3" style="1" width="3.57"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="4" min="4" style="1" width="12.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="3.75"/>
@@ -7432,7 +7432,8 @@
         <v>15</v>
       </c>
       <c r="M69" s="6" t="n">
-        <v>45.5</v>
+        <f aca="false">45.5+15</f>
+        <v>60.5</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0</v>
@@ -7442,7 +7443,7 @@
       </c>
       <c r="P69" s="8" t="n">
         <f aca="false">O69+ M69   +  N69 - (G69 + H69 + I69 + J69 +L69 +K69)</f>
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="Q69" s="6"/>
       <c r="R69" s="4" t="s">
@@ -7961,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="J78" s="6" t="n">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
@@ -7969,8 +7970,8 @@
         <v>0</v>
       </c>
       <c r="N78" s="6" t="n">
-        <f aca="false">30+12</f>
-        <v>42</v>
+        <f aca="false">30+3.5</f>
+        <v>33.5</v>
       </c>
       <c r="O78" s="8" t="n">
         <v>0</v>
@@ -8681,7 +8682,7 @@
         <v>3</v>
       </c>
       <c r="G90" s="6" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H90" s="6" t="n">
         <v>0</v>
@@ -8708,7 +8709,7 @@
       </c>
       <c r="P90" s="8" t="n">
         <f aca="false">O90+ M90   +  N90 - (G90 + H90 + I90 + J90 +L90 +K90)</f>
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="R90" s="4" t="s">
         <v>308</v>
@@ -8760,8 +8761,8 @@
         <v>15</v>
       </c>
       <c r="M91" s="6" t="n">
-        <f aca="false">2+73+15</f>
-        <v>90</v>
+        <f aca="false">2+73</f>
+        <v>75</v>
       </c>
       <c r="N91" s="6" t="n">
         <v>0</v>
@@ -8771,7 +8772,7 @@
       </c>
       <c r="P91" s="8" t="n">
         <f aca="false">O91+ M91   +  N91 - (G91 + H91 + I91 + J91 +L91 +K91)</f>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="R91" s="4" t="s">
         <v>311</v>
@@ -9531,7 +9532,7 @@
         <v>15</v>
       </c>
       <c r="J104" s="6" t="n">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="K104" s="6"/>
       <c r="L104" s="6" t="n">
@@ -9548,7 +9549,7 @@
       </c>
       <c r="P104" s="8" t="n">
         <f aca="false">O104+ M104   +  N104 - (G104 + H104 + I104 + J104 +L104 +K104)</f>
-        <v>3</v>
+        <v>11.5</v>
       </c>
       <c r="R104" s="4" t="s">
         <v>352</v>
@@ -9836,7 +9837,7 @@
         <v>3</v>
       </c>
       <c r="G109" s="6" t="n">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="H109" s="6" t="n">
         <v>0</v>
@@ -9863,7 +9864,7 @@
       </c>
       <c r="P109" s="8" t="n">
         <f aca="false">O109+ M109   +  N109 - (G109 + H109 + I109 + J109 +L109 +K109)</f>
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="R109" s="4" t="s">
         <v>308</v>
@@ -10086,7 +10087,7 @@
         <v>15</v>
       </c>
       <c r="J113" s="6" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K113" s="6"/>
       <c r="L113" s="6" t="n">
@@ -10103,7 +10104,7 @@
       </c>
       <c r="P113" s="8" t="n">
         <f aca="false">O113+ M113   +  N113 - (G113 + H113 + I113 + J113 +L113 +K113)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="R113" s="4" t="s">
         <v>378</v>
@@ -11797,7 +11798,7 @@
         <v>0</v>
       </c>
       <c r="J142" s="6" t="n">
-        <v>12</v>
+        <v>3.5</v>
       </c>
       <c r="K142" s="6"/>
       <c r="L142" s="6"/>
@@ -11805,8 +11806,8 @@
         <v>0</v>
       </c>
       <c r="N142" s="6" t="n">
-        <f aca="false">30+12</f>
-        <v>42</v>
+        <f aca="false">30+3.5</f>
+        <v>33.5</v>
       </c>
       <c r="O142" s="8" t="n">
         <v>0</v>
